--- a/public/excel/taxa.homicidio.UF.ANO.MULHER.xlsx
+++ b/public/excel/taxa.homicidio.UF.ANO.MULHER.xlsx
@@ -1,169 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>TO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +197,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -183,1758 +209,1807 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>10.45</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>10.51</v>
       </c>
-      <c r="D2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>4.21</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>5.06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>4.56</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="0" t="n">
         <v>4.46</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="0" t="n">
         <v>6.04</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>3.28</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>4.81</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="0" t="n">
         <v>5.87</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>5.15</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="0" t="n">
         <v>5.04</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>6.12</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="0" t="n">
         <v>6.57</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="0" t="n">
         <v>6.73</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="0" t="n">
         <v>6.62</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="0" t="n">
         <v>8.59</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="0" t="n">
         <v>7.67</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>5.86</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>5.87</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>3.85</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>4.68</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>5.54</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>4.45</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>5.08</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="0" t="n">
         <v>5.02</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>5.63</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>5.89</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="0" t="n">
         <v>8.13</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>7.54</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>5.94</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="0" t="n">
         <v>9.32</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="0" t="n">
         <v>9.01</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="0" t="n">
         <v>9.76</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="0" t="n">
         <v>9.45</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>3.78</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>5.26</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>4.98</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>3.43</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>5.06</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>3.42</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="0" t="n">
         <v>4.01</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>4.15</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0" t="n">
         <v>4.21</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="0" t="n">
         <v>4.22</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="0" t="n">
         <v>4.95</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="0" t="n">
         <v>7.12</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="0" t="n">
         <v>5.04</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="0" t="n">
         <v>4.54</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>10.08</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>6.51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>8.13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>8.24</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>4.83</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="0" t="n">
         <v>5.44</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>6.53</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>5.07</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="0" t="n">
         <v>4.57</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>3.46</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0" t="n">
         <v>4.58</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>3.84</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0" t="n">
         <v>5.08</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>7.9</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0" t="n">
         <v>7.45</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="0" t="n">
         <v>7.97</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="0" t="n">
         <v>6.72</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>4.18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>4.22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0" t="n">
         <v>5.08</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0" t="n">
         <v>3.87</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>6.96</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>7.75</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="0" t="n">
         <v>9.14</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="0" t="n">
         <v>7.83</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>8.4</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>6.3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="0" t="n">
         <v>7.65</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>8.41</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="0" t="n">
         <v>9.91</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>10.95</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="0" t="n">
         <v>10.09</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="0" t="n">
         <v>10.81</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="0" t="n">
         <v>11.26</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="0" t="n">
         <v>10.57</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="0" t="n">
         <v>10.12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>4.47</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>3.83</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0" t="n">
         <v>2.89</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="0" t="n">
         <v>3.26</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="0" t="n">
         <v>3.68</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>4.87</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="0" t="n">
         <v>4.21</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="0" t="n">
         <v>3.9</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>4.61</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="0" t="n">
         <v>5.09</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>5.79</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>6.95</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="0" t="n">
         <v>8.26</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="0" t="n">
         <v>9.56</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="0" t="n">
         <v>8.39</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="0" t="n">
         <v>9.03</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="0" t="n">
         <v>9.09</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>6.65</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>5.63</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="0" t="n">
         <v>7.29</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="0" t="n">
         <v>7.02</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="0" t="n">
         <v>4.67</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>4.57</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="0" t="n">
         <v>4.91</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="0" t="n">
         <v>5.87</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>5.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="0" t="n">
         <v>4.67</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>5.27</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="0" t="n">
         <v>5.39</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>6.17</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="0" t="n">
         <v>5.67</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="0" t="n">
         <v>5.95</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="0" t="n">
         <v>6.22</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="0" t="n">
         <v>6.69</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="0" t="n">
         <v>4.94</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>6.88</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>7.81</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="0" t="n">
         <v>9.96</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="0" t="n">
         <v>8.19</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="0" t="n">
         <v>5.76</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>7.92</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="0" t="n">
         <v>9.35</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="0" t="n">
         <v>9.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="0" t="n">
         <v>8.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>10.12</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="0" t="n">
         <v>11.44</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>11.63</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="0" t="n">
         <v>13.27</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>14.44</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="0" t="n">
         <v>11.27</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="0" t="n">
         <v>11.11</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="0" t="n">
         <v>11.12</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="0" t="n">
         <v>11.76</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="0" t="n">
         <v>9.87</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>10.99</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>9.83</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="0" t="n">
         <v>8.47</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="0" t="n">
         <v>10.1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="0" t="n">
         <v>7.93</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>7.09</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="0" t="n">
         <v>6.88</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="0" t="n">
         <v>6.42</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>6.12</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>6.34</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="0" t="n">
         <v>6.26</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>6.48</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="0" t="n">
         <v>6.84</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>6.91</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="0" t="n">
         <v>7.71</v>
       </c>
-      <c r="Q10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>9.52</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="0" t="n">
         <v>9.61</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="0" t="n">
         <v>10.43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>1.45</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="0" t="n">
         <v>4.67</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="0" t="n">
         <v>3.45</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="0" t="n">
         <v>3.31</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>3.37</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="0" t="n">
         <v>2.85</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="0" t="n">
         <v>3.42</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>2.51</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>2.97</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="0" t="n">
         <v>3.57</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>3.43</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>4.09</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="0" t="n">
         <v>4.83</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="0" t="n">
         <v>5.14</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="0" t="n">
         <v>4.88</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="0" t="n">
         <v>5.6</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="0" t="n">
         <v>6.31</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>5.87</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>5.32</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0" t="n">
         <v>8.93</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="0" t="n">
         <v>5.95</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="0" t="n">
         <v>5.75</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>5.82</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="0" t="n">
         <v>5.85</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="0" t="n">
         <v>6.72</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="0" t="n">
         <v>7.01</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>6.66</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="0" t="n">
         <v>7.42</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>7.61</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="0" t="n">
         <v>7.35</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>8.83</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="0" t="n">
         <v>7.9</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="0" t="n">
         <v>9.7</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="0" t="n">
         <v>8.39</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="0" t="n">
         <v>7.97</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="0" t="n">
         <v>8.62</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>10.53</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>10.13</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="0" t="n">
         <v>10.37</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="0" t="n">
         <v>10.11</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="0" t="n">
         <v>9.44</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="0" t="n">
         <v>8.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>7.83</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>8.66</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="0" t="n">
         <v>6.27</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>8.13</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="0" t="n">
         <v>8.28</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>7.26</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="0" t="n">
         <v>9.03</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="0" t="n">
         <v>9.17</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="0" t="n">
         <v>7.95</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="0" t="n">
         <v>7.37</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="0" t="n">
         <v>9.81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>8.69</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>8.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="0" t="n">
         <v>8.87</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="0" t="n">
         <v>7.49</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="0" t="n">
         <v>7.07</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>8.52</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="0" t="n">
         <v>8.14</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="0" t="n">
         <v>8.93</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="0" t="n">
         <v>9.54</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>10.36</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="0" t="n">
         <v>8.07</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>8.98</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="0" t="n">
         <v>7.39</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>7.81</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="0" t="n">
         <v>6.66</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="0" t="n">
         <v>7.44</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="0" t="n">
         <v>8.13</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="0" t="n">
         <v>8.06</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="0" t="n">
         <v>8.96</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>3.24</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="0" t="n">
         <v>3.41</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="0" t="n">
         <v>3.34</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="0" t="n">
         <v>2.78</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="0" t="n">
         <v>3.29</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="0" t="n">
         <v>3.66</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="0" t="n">
         <v>3.72</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>4.47</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="0" t="n">
         <v>4.87</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0" t="n">
         <v>5.69</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="0" t="n">
         <v>7.34</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="0" t="n">
         <v>6.01</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="0" t="n">
         <v>7.64</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="0" t="n">
         <v>6.92</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="0" t="n">
         <v>7.02</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="0" t="n">
         <v>3.26</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="0" t="n">
         <v>3.06</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="0" t="n">
         <v>3.04</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="0" t="n">
         <v>3.95</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>3.36</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="0" t="n">
         <v>3.95</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="0" t="n">
         <v>2.93</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="0" t="n">
         <v>4.39</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="0" t="n">
         <v>4.38</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="0" t="n">
         <v>4.27</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="0" t="n">
         <v>5.26</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="0" t="n">
         <v>5.49</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="0" t="n">
         <v>7.26</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="0" t="n">
         <v>8.34</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="0" t="n">
         <v>7.67</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="0" t="n">
         <v>7.45</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="0" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>8.97</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0" t="n">
         <v>9.3</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="0" t="n">
         <v>9.77</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="0" t="n">
         <v>8.93</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="0" t="n">
         <v>10.22</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>9.67</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="0" t="n">
         <v>9.45</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="0" t="n">
         <v>9.08</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="0" t="n">
         <v>9.63</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="0" t="n">
         <v>9.75</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="0" t="n">
         <v>10.33</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="0" t="n">
         <v>10.72</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="0" t="n">
         <v>11.52</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="0" t="n">
         <v>11.95</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="0" t="n">
         <v>9.59</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="0" t="n">
         <v>10.37</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="0" t="n">
         <v>9.21</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="0" t="n">
         <v>10.92</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="0" t="n">
         <v>9.29</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="0" t="n">
         <v>2.31</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>3.56</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="0" t="n">
         <v>3.57</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="0" t="n">
         <v>2.53</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="0" t="n">
         <v>3.34</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="0" t="n">
         <v>3.95</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="0" t="n">
         <v>5.01</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="0" t="n">
         <v>3.96</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="0" t="n">
         <v>3.46</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="0" t="n">
         <v>3.25</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="0" t="n">
         <v>4.41</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="0" t="n">
         <v>4.93</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="0" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>5.85</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="0" t="n">
         <v>5.3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="0" t="n">
         <v>5.68</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>5.62</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="0" t="n">
         <v>5.76</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="0" t="n">
         <v>6.24</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="0" t="n">
         <v>6.59</v>
       </c>
-      <c r="K19" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="0" t="n">
         <v>6.19</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="0" t="n">
         <v>7.05</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="0" t="n">
         <v>7.73</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="0" t="n">
         <v>7.96</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="0" t="n">
         <v>7.12</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="0" t="n">
         <v>8.44</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="0" t="n">
         <v>6.94</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>14.83</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="0" t="n">
         <v>13.82</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="0" t="n">
         <v>13.57</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="0" t="n">
         <v>13.4</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="0" t="n">
         <v>11.68</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>12.74</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="0" t="n">
         <v>12.53</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="0" t="n">
         <v>13.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="0" t="n">
         <v>11.31</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="0" t="n">
         <v>13.85</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="0" t="n">
         <v>13.08</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="0" t="n">
         <v>14.11</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="0" t="n">
         <v>14.23</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="0" t="n">
         <v>13.96</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="0" t="n">
         <v>12.25</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="0" t="n">
         <v>12.9</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="0" t="n">
         <v>12.98</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="0" t="n">
         <v>12.6</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="0" t="n">
         <v>11.12</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>7.87</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="0" t="n">
         <v>8.74</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="0" t="n">
         <v>5.44</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="0" t="n">
         <v>6.99</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="0" t="n">
         <v>6.42</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="0" t="n">
         <v>5.29</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="0" t="n">
         <v>5.36</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="0" t="n">
         <v>5.43</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="0" t="n">
         <v>5.73</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="N21" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="N21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>8.74</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="0" t="n">
         <v>7.29</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="0" t="n">
         <v>7.77</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="0" t="n">
         <v>7.27</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="0" t="n">
         <v>8.36</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="0" t="n">
         <v>9.95</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>11.58</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>7.57</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="0" t="n">
         <v>6.53</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="0" t="n">
         <v>6.85</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>11.53</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="0" t="n">
         <v>9.04</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="0" t="n">
         <v>8.76</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="0" t="n">
         <v>8.62</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="0" t="n">
         <v>8.85</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="0" t="n">
         <v>7.9</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="0" t="n">
         <v>4.36</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="0" t="n">
         <v>7.35</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="0" t="n">
         <v>9.46</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="0" t="n">
         <v>7.3</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="0" t="n">
         <v>8.01</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="0" t="n">
         <v>7.94</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="0" t="n">
         <v>6.98</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="0" t="n">
         <v>7.36</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>15.87</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="0" t="n">
         <v>10.54</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="0" t="n">
         <v>10.29</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="0" t="n">
         <v>8.51</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="0" t="n">
         <v>13.26</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="0" t="n">
         <v>4.86</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="0" t="n">
         <v>9.45</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="0" t="n">
         <v>9.17</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="0" t="n">
         <v>8.36</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="0" t="n">
         <v>7.33</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="0" t="n">
         <v>4.57</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="0" t="n">
         <v>8.59</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="0" t="n">
         <v>6.64</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="0" t="n">
         <v>11.05</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="0" t="n">
         <v>5.41</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="0" t="n">
         <v>7.07</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="0" t="n">
         <v>10.82</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="0" t="n">
         <v>8.84</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="0" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>7.09</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="0" t="n">
         <v>6.43</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="0" t="n">
         <v>6.46</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="0" t="n">
         <v>6.65</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="0" t="n">
         <v>6.26</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="0" t="n">
         <v>7.48</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="0" t="n">
         <v>6.53</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="0" t="n">
         <v>6.56</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="0" t="n">
         <v>6.58</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="0" t="n">
         <v>5.78</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="0" t="n">
         <v>6.47</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="0" t="n">
         <v>6.88</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="0" t="n">
         <v>7.07</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="0" t="n">
         <v>7.11</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="0" t="n">
         <v>6.23</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="0" t="n">
         <v>7.07</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24" s="0" t="n">
         <v>6.11</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" s="0" t="n">
         <v>6.12</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>3.49</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="0" t="n">
         <v>3.58</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="0" t="n">
         <v>2.94</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="0" t="n">
         <v>3.15</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="0" t="n">
         <v>4.29</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="0" t="n">
         <v>4.55</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="0" t="n">
         <v>5.01</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="0" t="n">
         <v>4.35</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="0" t="n">
         <v>4.41</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="0" t="n">
         <v>3.52</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="0" t="n">
         <v>5.19</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="0" t="n">
         <v>3.93</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="0" t="n">
         <v>4.35</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="0" t="n">
         <v>2.92</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="0" t="n">
         <v>4.23</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25" s="0" t="n">
         <v>4.26</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" s="0" t="n">
         <v>4.44</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>14.23</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="0" t="n">
         <v>11.7</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="0" t="n">
         <v>12.67</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="0" t="n">
         <v>9.84</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="0" t="n">
         <v>8.36</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="0" t="n">
         <v>6.26</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="0" t="n">
         <v>6.38</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="0" t="n">
         <v>7.01</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="0" t="n">
         <v>6.08</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="0" t="n">
         <v>5.88</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="0" t="n">
         <v>6.86</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="0" t="n">
         <v>5.88</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="0" t="n">
         <v>6.47</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="0" t="n">
         <v>6.31</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="0" t="n">
         <v>7.82</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="0" t="n">
         <v>8.57</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" s="0" t="n">
         <v>8.48</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="0" t="n">
         <v>9.26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="n">
         <v>7.91</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="0" t="n">
         <v>8.16</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="0" t="n">
         <v>8.03</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="0" t="n">
         <v>7.72</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="0" t="n">
         <v>10.14</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="0" t="n">
         <v>10.38</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="0" t="n">
         <v>11.43</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="0" t="n">
         <v>9.99</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="0" t="n">
         <v>10.75</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="0" t="n">
         <v>10.11</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="0" t="n">
         <v>6.64</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="0" t="n">
         <v>6.37</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="0" t="n">
         <v>6.39</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="0" t="n">
         <v>6.37</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="0" t="n">
         <v>6.11</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="0" t="n">
         <v>6.08</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" s="0" t="n">
         <v>5.51</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="0" t="n">
         <v>6.04</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>5.47</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="0" t="n">
         <v>4.74</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="0" t="n">
         <v>4.25</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="0" t="n">
         <v>4.95</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="0" t="n">
         <v>5.53</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="0" t="n">
         <v>4.92</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="0" t="n">
         <v>4.66</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="0" t="n">
         <v>4.08</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="0" t="n">
         <v>4.07</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="0" t="n">
         <v>3.68</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="0" t="n">
         <v>4.77</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="0" t="n">
         <v>4.12</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="0" t="n">
         <v>5.18</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="0" t="n">
         <v>6.17</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="0" t="n">
         <v>7.83</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="0" t="n">
         <v>7.59</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="0" t="n">
         <v>6.52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>